--- a/30_請求書.xlsx
+++ b/30_請求書.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="請求書" sheetId="2" r:id="rId1"/>
-    <sheet name="商品リスト" sheetId="3" r:id="rId2"/>
+    <sheet name="商品リスト" sheetId="3" r:id="rId1"/>
+    <sheet name="見積書" sheetId="4" r:id="rId2"/>
+    <sheet name="納品書" sheetId="5" r:id="rId3"/>
+    <sheet name="請求書" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>請求書</t>
     <rPh sb="0" eb="3">
@@ -31,13 +33,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>請求書番号：</t>
-    <rPh sb="0" eb="5">
-      <t>セイキュウショバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>下記のとおり、ご請求申し上げます。</t>
     <rPh sb="0" eb="2">
       <t>カキ</t>
@@ -54,10 +49,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>〒141-0000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>東京都品川区西五反田x-xx-x</t>
     <rPh sb="0" eb="3">
       <t>トウキョウト</t>
@@ -106,22 +97,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【振込先】○○銀行　五反田支店</t>
-    <rPh sb="1" eb="3">
-      <t>フリコミ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ギンコウ</t>
-    </rPh>
-    <rPh sb="10" eb="15">
-      <t>ゴタンダシテン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>普通 xxxxxxx</t>
     <rPh sb="0" eb="2">
       <t>フツウ</t>
@@ -233,6 +208,143 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ハンバイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〒141-0000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【振込先】　</t>
+    <rPh sb="1" eb="3">
+      <t>フリコミ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○○銀行　五反田支店</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ← TODAY()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ← [Ctrl] + 「；」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見積書</t>
+    <rPh sb="0" eb="3">
+      <t>ミツモリショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記のとおり、御見積もり申し上げます。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>オミツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見積番号：</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求番号：</t>
+    <rPh sb="0" eb="2">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品場所：</t>
+    <rPh sb="0" eb="4">
+      <t>ノウヒンバショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有効期限：</t>
+    <rPh sb="0" eb="4">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発行日から30日</t>
+    <rPh sb="0" eb="2">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品書</t>
+    <rPh sb="0" eb="3">
+      <t>ノウヒンショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品番号：</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記のとおり、納品いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>摘要：</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>毎度ありがとうございます。</t>
+    <rPh sb="0" eb="2">
+      <t>マイド</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -241,10 +353,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0&quot;円&quot;"/>
+    <numFmt numFmtId="181" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,14 +413,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,12 +467,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -390,6 +554,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -397,26 +570,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -426,20 +588,124 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - アクセント 3" xfId="1" builtinId="38"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFF99"/>
+      <color rgb="FFCCFF66"/>
+      <color rgb="FF99FF66"/>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FFFF9966"/>
+      <color rgb="FFFFCC00"/>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFCCCC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -455,9 +721,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:C10" totalsRowShown="0">
   <autoFilter ref="A1:C10"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="注文番号"/>
+    <tableColumn id="1" name="注文番号" dataDxfId="0"/>
     <tableColumn id="2" name="商品名"/>
-    <tableColumn id="3" name="本体価格" dataDxfId="0"/>
+    <tableColumn id="3" name="本体価格" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -750,9 +1016,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>2002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>2003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>3001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>3002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5">
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>3003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A10 C2:C10"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -763,146 +1164,234 @@
     <col min="3" max="5" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="8"/>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="D4" s="18">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="17">
+        <v>44963</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="28">
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="E7" s="1" t="s">
+      <c r="B10" s="29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="C10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="D10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="E10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="2" t="str">
+        <f>IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="15">
+        <f>IFERROR(C11*D11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2" t="str">
+        <f>IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="15">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="2" t="str">
+        <f>IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="2" t="str">
+        <f>IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2" t="str">
+        <f>IF(A15="","",VLOOKUP(A15,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="2" t="str">
+        <f>IF(A16="","",VLOOKUP(A16,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="15">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="D18" s="12">
         <v>0.08</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="15">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="16">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -910,139 +1399,503 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="5" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="D4" s="18">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="17">
+        <v>44963</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7">
-        <v>15900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="D10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="2" t="str">
+        <f>IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="15">
+        <f>IFERROR(C11*D11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2" t="str">
+        <f>IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="15">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="2" t="str">
+        <f>IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="2" t="str">
+        <f>IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2" t="str">
+        <f>IF(A15="","",VLOOKUP(A15,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="2" t="str">
+        <f>IF(A16="","",VLOOKUP(A16,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="15">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="22"/>
+      <c r="C18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="15">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="16">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C17:D17"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="5" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="D4" s="18">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="17">
+        <v>44963</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="32">
+        <f>E19</f>
+        <v>64476</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="39">
         <v>1002</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B11" s="2" t="str">
+        <f>IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
+        <v>ラウンドテーブル</v>
+      </c>
+      <c r="C11" s="15">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
         <v>19900</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7">
-        <v>49400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2001</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7">
-        <v>9800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2002</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2003</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="7">
-        <v>25400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>3001</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="7">
-        <v>12300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>3002</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="7">
-        <v>26700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>3003</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D11" s="40">
+        <v>3</v>
+      </c>
+      <c r="E11" s="15">
+        <f>IFERROR(C11*D11,0)</f>
+        <v>59700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="39"/>
+      <c r="B12" s="2" t="str">
+        <f>IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="15">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="39"/>
+      <c r="B13" s="2" t="str">
+        <f>IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="39"/>
+      <c r="B14" s="2" t="str">
+        <f>IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="39"/>
+      <c r="B15" s="2" t="str">
+        <f>IF(A15="","",VLOOKUP(A15,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="39"/>
+      <c r="B16" s="2" t="str">
+        <f>IF(A16="","",VLOOKUP(A16,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="15">
+        <f>SUM(E11:E16)</f>
+        <v>59700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="7">
-        <v>3500</v>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="15">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>4776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="16">
+        <f>E17+E18</f>
+        <v>64476</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
-    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A10 C2:C10"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>